--- a/文档/人员分组-乔冠辉.xlsx
+++ b/文档/人员分组-乔冠辉.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -112,21 +112,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>程序开发</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2091947096@qq.com</t>
   </si>
   <si>
@@ -134,21 +119,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设计</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>296127042@qq.com</t>
   </si>
   <si>
@@ -176,10 +146,6 @@
   </si>
   <si>
     <t>DBA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹银河</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -199,16 +165,49 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>501850471@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹银河</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>08311402</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">15624952149
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2909328533@qq.com</t>
-  </si>
-  <si>
-    <t>501850471@qq.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>马思雨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 程序开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -271,7 +270,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="14"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -443,7 +442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -468,9 +467,6 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -503,6 +499,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -809,15 +811,15 @@
   <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="15.6328125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="22.6328125" style="19" customWidth="1"/>
-    <col min="9" max="15" width="15.6328125" style="19" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="19"/>
+    <col min="1" max="7" width="15.6328125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="22.6328125" style="18" customWidth="1"/>
+    <col min="9" max="15" width="15.6328125" style="18" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -860,16 +862,16 @@
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>18811076159</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -886,16 +888,16 @@
       <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>18161792102</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -912,16 +914,16 @@
       <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>13142121502</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -938,16 +940,16 @@
       <c r="E6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>15810975602</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -964,16 +966,16 @@
       <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="8">
+        <v>18210199358</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="9">
-        <v>18210199358</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -982,7 +984,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="6">
         <v>1120142141</v>
@@ -990,16 +992,16 @@
       <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="F8" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="8">
         <v>18811365376</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="11" t="s">
+      <c r="H8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1008,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="6">
         <v>1120142042</v>
@@ -1016,16 +1018,16 @@
       <c r="E9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="F9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="8">
         <v>18211050898</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="11" t="s">
+      <c r="H9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1034,7 +1036,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="6">
         <v>1120142044</v>
@@ -1042,16 +1044,16 @@
       <c r="E10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>13051190317</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="11" t="s">
+      <c r="H10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1060,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="6">
         <v>1120142086</v>
@@ -1068,16 +1070,16 @@
       <c r="E11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="11" t="s">
+      <c r="F11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1086,7 +1088,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="6">
         <v>1120142148</v>
@@ -1094,46 +1096,63 @@
       <c r="E12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1120142149</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="11" t="s">
+      <c r="F13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="11">
+        <v>12</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12">
-        <v>11</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="14">
-        <v>1120142149</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1149,6 +1168,7 @@
     <hyperlink ref="H10" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/文档/人员分组-乔冠辉.xlsx
+++ b/文档/人员分组-乔冠辉.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -74,9 +74,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>337935591@qq.com</t>
-  </si>
-  <si>
     <t>组员</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -110,9 +107,6 @@
   <si>
     <t>王健</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2091947096@qq.com</t>
   </si>
   <si>
     <t>张涵琦</t>
@@ -154,18 +148,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>751117672@qq.com</t>
-  </si>
-  <si>
-    <t>634602639@qq.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>15624952148   </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>501850471@qq.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -186,28 +169,56 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>组员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>马思雨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 程序开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>08211401</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>501850471@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>751117672@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>634602639@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>2909328533@qq.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>组员</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>马思雨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 程序开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI设计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>963420537@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2091947096@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>337935591@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -810,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -895,10 +906,10 @@
         <v>18161792102</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -906,25 +917,25 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6">
         <v>1120142088</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>19</v>
       </c>
       <c r="G5" s="8">
         <v>13142121502</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -932,25 +943,25 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6">
         <v>1120142049</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="8">
         <v>15810975602</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -958,25 +969,25 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6">
         <v>1120142052</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G7" s="8">
         <v>18210199358</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -984,7 +995,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6">
         <v>1120142141</v>
@@ -993,16 +1004,16 @@
         <v>9</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G8" s="8">
         <v>18811365376</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1010,7 +1021,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6">
         <v>1120142042</v>
@@ -1019,16 +1030,16 @@
         <v>9</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G9" s="8">
         <v>18211050898</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1036,13 +1047,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6">
         <v>1120142044</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>14</v>
@@ -1051,10 +1062,10 @@
         <v>13051190317</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1062,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="6">
         <v>1120142086</v>
@@ -1071,16 +1082,16 @@
         <v>9</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1088,7 +1099,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="6">
         <v>1120142148</v>
@@ -1097,16 +1108,16 @@
         <v>9</v>
       </c>
       <c r="F12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="H12" s="9" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1114,25 +1125,25 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D13" s="6">
         <v>1120142149</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1140,17 +1151,25 @@
         <v>12</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1120143677</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="F14" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="G14" s="15">
+        <v>13520396270</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="I14" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1166,9 +1185,14 @@
     <hyperlink ref="H5" r:id="rId2"/>
     <hyperlink ref="H12" r:id="rId3"/>
     <hyperlink ref="H10" r:id="rId4"/>
+    <hyperlink ref="H14" r:id="rId5"/>
+    <hyperlink ref="H11" r:id="rId6"/>
+    <hyperlink ref="H13" r:id="rId7"/>
+    <hyperlink ref="H7" r:id="rId8"/>
+    <hyperlink ref="H4" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
